--- a/docs/Mapping/CodeValue.xlsx
+++ b/docs/Mapping/CodeValue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\python\Book\Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SnowflakeEnriched\docs\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CDCFE3-6896-4791-BBA9-3189A5C24E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0753AC-FF4D-47C1-B629-B710CF83920D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{AB967FAB-1F2D-4960-BA37-6CEE31A5434A}"/>
   </bookViews>
@@ -340,6 +340,61 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -348,61 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -722,7 +722,7 @@
   <dimension ref="B3:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -730,7 +730,7 @@
     <col min="1" max="1" width="5.3125" customWidth="1"/>
     <col min="2" max="2" width="13.3671875" customWidth="1"/>
     <col min="3" max="3" width="17.578125" customWidth="1"/>
-    <col min="4" max="4" width="61.68359375" customWidth="1"/>
+    <col min="4" max="4" width="16.62890625" customWidth="1"/>
     <col min="5" max="5" width="29.5234375" customWidth="1"/>
     <col min="7" max="7" width="16.15625" customWidth="1"/>
     <col min="8" max="8" width="31.1015625" customWidth="1"/>
@@ -738,76 +738,76 @@
   <sheetData>
     <row r="3" spans="7:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="7:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="7:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="7:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="7:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="7:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="7:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G10" s="15"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="7:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G11" s="15"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G12" s="15"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G13" s="15"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G14" s="15"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G15" s="15"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" s="15"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G17" s="15"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G17" s="13"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="2:8" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,134 +820,139 @@
       <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="18"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="20"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="21"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G23" s="15"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G24" s="16"/>
-      <c r="H24" s="19"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G26" s="4"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G27" s="4"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G28" s="4"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G30" s="4"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G31" s="4"/>
-      <c r="H31" s="7"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G32" s="4"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G33" s="4"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G34" s="4"/>
-      <c r="H34" s="7"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G35" s="4"/>
-      <c r="H35" s="7"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G36" s="4"/>
-      <c r="H36" s="7"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G37" s="4"/>
-      <c r="H37" s="7"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G38" s="4"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G39" s="4"/>
-      <c r="H39" s="7"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="7:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G40" s="5"/>
-      <c r="H40" s="8"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="7:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G25:G40"/>
     <mergeCell ref="H25:H40"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:G6"/>
@@ -956,11 +961,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="G9:G24"/>
     <mergeCell ref="H9:H24"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G25:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
